--- a/src/main/resources/templates/template.xlsx
+++ b/src/main/resources/templates/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihyun/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29C97E6-644E-2A47-B8BB-045536D31A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{198F22F5-1F76-6E4B-92A3-AF1C25FA682E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{536B9945-D6C7-44DB-AFA9-F5AA4CAF4462}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23220" windowHeight="16440" xr2:uid="{536B9945-D6C7-44DB-AFA9-F5AA4CAF4462}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>자사</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,14 +63,6 @@
   </si>
   <si>
     <t>기자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경쟁사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,9 +205,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -249,7 +238,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463F1D47-42BC-44D9-9A46-E5BB35C2FD18}">
-  <dimension ref="B2:G18"/>
+  <dimension ref="B2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:G18"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -603,62 +595,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="40.75" customHeight="1">
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="48" customHeight="1">
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="2:7" ht="25.75" customHeight="1">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="5" customHeight="1">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="2:7" ht="36" customHeight="1">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1">
       <c r="B7" s="1"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
@@ -680,21 +672,19 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:7" ht="4.75" customHeight="1">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+    <row r="10" spans="2:7" ht="37" customHeight="1">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="2:7" ht="36" customHeight="1">
-      <c r="B11" s="15" t="s">
-        <v>7</v>
-      </c>
+      <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
@@ -722,47 +712,19 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="2:7" ht="5" customHeight="1">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="2:7" ht="36" customHeight="1">
-      <c r="B16" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="2:7" ht="36" customHeight="1">
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" ht="36" customHeight="1">
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+    <row r="20" spans="2:7" ht="22" customHeight="1">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B16:G16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/templates/template.xlsx
+++ b/src/main/resources/templates/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihyun/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{198F22F5-1F76-6E4B-92A3-AF1C25FA682E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C714FD8A-B705-814C-8D68-EEF90E8A73AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23220" windowHeight="16440" xr2:uid="{536B9945-D6C7-44DB-AFA9-F5AA4CAF4462}"/>
+    <workbookView xWindow="13060" yWindow="500" windowWidth="27360" windowHeight="16440" xr2:uid="{536B9945-D6C7-44DB-AFA9-F5AA4CAF4462}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>자사</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,10 @@
     <t>기자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>기사 URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -83,15 +87,6 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -134,6 +129,11 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Pretendard"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -149,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -186,63 +186,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463F1D47-42BC-44D9-9A46-E5BB35C2FD18}">
-  <dimension ref="B2:G20"/>
+  <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -590,27 +626,29 @@
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="40.75" customHeight="1">
+    <row r="2" spans="2:9" ht="40.75" customHeight="1">
       <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="2:7" ht="48" customHeight="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="2:7" ht="25.75" customHeight="1">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="2:9" ht="48" customHeight="1">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="2:9" ht="25.75" customHeight="1">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -624,87 +662,93 @@
         <v>4</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="5" customHeight="1">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="2:7" ht="36" customHeight="1">
-      <c r="B6" s="14" t="s">
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="2:9" ht="5" customHeight="1">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="2:9" ht="36" customHeight="1">
+      <c r="B6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="2:7" ht="30" customHeight="1">
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="2:7" ht="36" customHeight="1">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:7" ht="37" customHeight="1">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="2:7" ht="36" customHeight="1">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="2:7" ht="36" customHeight="1">
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="2:7" ht="36" customHeight="1">
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="2:7" ht="36" customHeight="1">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="2:9" ht="30" customHeight="1">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="2:9" ht="30" customHeight="1">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="2:9" ht="36" customHeight="1">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="2:9" ht="37" customHeight="1">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="2:9" ht="36" customHeight="1">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="2:9" ht="36" customHeight="1">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="2:9" ht="36" customHeight="1">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="2:9" ht="36" customHeight="1">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -713,18 +757,18 @@
       <c r="G14" s="2"/>
     </row>
     <row r="20" spans="2:7" ht="22" customHeight="1">
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/templates/template.xlsx
+++ b/src/main/resources/templates/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihyun/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C714FD8A-B705-814C-8D68-EEF90E8A73AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52A81A7E-9669-234D-9B40-9560F1BF1AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13060" yWindow="500" windowWidth="27360" windowHeight="16440" xr2:uid="{536B9945-D6C7-44DB-AFA9-F5AA4CAF4462}"/>
+    <workbookView xWindow="2900" yWindow="500" windowWidth="27360" windowHeight="16440" xr2:uid="{536B9945-D6C7-44DB-AFA9-F5AA4CAF4462}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +133,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Pretendard"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -225,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -253,32 +267,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463F1D47-42BC-44D9-9A46-E5BB35C2FD18}">
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -625,28 +644,28 @@
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="50.83203125" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="40.75" customHeight="1">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="2:9" ht="48" customHeight="1">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="2:9" ht="25.75" customHeight="1">
       <c r="B4" s="4" t="s">
@@ -667,19 +686,19 @@
       <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="2:9" ht="5" customHeight="1">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="14"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="2:9" ht="36" customHeight="1">
       <c r="B6" s="17" t="s">
@@ -693,60 +712,62 @@
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="2:9" ht="30" customHeight="1">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:9" ht="30" customHeight="1">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:9" ht="36" customHeight="1">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="2:9" ht="37" customHeight="1">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:9" ht="36" customHeight="1">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:9" ht="36" customHeight="1">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="2:9" ht="36" customHeight="1">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:9" ht="36" customHeight="1">
       <c r="B14" s="1"/>
